--- a/src/data/accountsData.xlsx
+++ b/src/data/accountsData.xlsx
@@ -72,9 +72,6 @@
     <t>BAHAMAS</t>
   </si>
   <si>
-    <t>testUser1</t>
-  </si>
-  <si>
     <t>Name2</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>"123"</t>
+  </si>
+  <si>
+    <t>testUser3</t>
   </si>
 </sst>
 </file>
@@ -453,14 +453,16 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD25"/>
+      <selection activeCell="J2" sqref="J2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="8.5703125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="23.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -471,7 +473,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
@@ -486,57 +488,57 @@
         <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
